--- a/tables/RGM EnvSx.xlsx
+++ b/tables/RGM EnvSx.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewpierson/Desktop/Heloderma Spatial/Heloderma Spatial/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewpierson/Desktop/Heloderma Spatial/Heloderma Spatial/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0916A127-33FE-EC42-8767-8E27A3F1FD5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5BDD26E-3D39-1743-8E71-34A6873AC615}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="320" yWindow="1320" windowWidth="22560" windowHeight="10220" xr2:uid="{DB427BCB-D21C-CB48-B2D9-6394BCDE6647}"/>
+    <workbookView xWindow="2640" yWindow="800" windowWidth="24700" windowHeight="11560" xr2:uid="{DB427BCB-D21C-CB48-B2D9-6394BCDE6647}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="57">
   <si>
     <t>Environment</t>
   </si>
@@ -154,6 +156,116 @@
       <t xml:space="preserve"> Raw group means of 95% and 50% KDE home range sizes. Both MCP and KDE outputs are grouped by environment and sex. </t>
     </r>
   </si>
+  <si>
+    <t>OH</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>Post Hoc</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Avg. =</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avg. = </t>
+  </si>
+  <si>
+    <t>68.3 ± 11.9 S.E.</t>
+  </si>
+  <si>
+    <t>36.8 ± 4.3 S.E.</t>
+  </si>
+  <si>
+    <t>52.8 ± 7.6 S.E.</t>
+  </si>
+  <si>
+    <t>32.8 ± 4.1 S.E.</t>
+  </si>
+  <si>
+    <t>7.7 ± 0.6 S.E.</t>
+  </si>
+  <si>
+    <t>26.1 ± 1.7 S.E.</t>
+  </si>
+  <si>
+    <t>df = 69.2, t = 1.84,  P = 0.06</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Pairwise Comparisons</t>
+  </si>
+  <si>
+    <t>13.4 ± 4.0 S.E.</t>
+  </si>
+  <si>
+    <t>43.5 ± 6.1 S.E.</t>
+  </si>
+  <si>
+    <t>8.2 ± 3.2 S.E.</t>
+  </si>
+  <si>
+    <t>23.8 ± 6.08 S.E.</t>
+  </si>
+  <si>
+    <t>33.7 ± 5.5 S.E.</t>
+  </si>
+  <si>
+    <t>10.8 ± 3.12 S.E.</t>
+  </si>
+  <si>
+    <t>21.8 ± 4.1 S.E.</t>
+  </si>
+  <si>
+    <t>43.7 ± 4.2 S.E.</t>
+  </si>
+  <si>
+    <t>10.7 ± 2.6 S.E.</t>
+  </si>
+  <si>
+    <t>5.03 ± 2.0 S.E.</t>
+  </si>
+  <si>
+    <t>df = 60.2, t = 5.98,  P = &lt;0.0001*</t>
+  </si>
+  <si>
+    <t>df = 69.7, t = 3.37,  P = 0.001*</t>
+  </si>
+  <si>
+    <t>df = 58.9, t = 3.26,  P = 0.001*</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Table 1 | </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Adjusted home range sizes by estimation method and post-hoc pairwise comparisons between the SC and OH populations. KDEs for OH were estimated only for 2002. Therefore, pairwise comparisons were not calculated for KDEs. Home range estimations are given in hectares. </t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -162,7 +274,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -193,6 +305,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -202,7 +340,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -241,15 +379,111 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -276,6 +510,87 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -590,10 +905,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45CD31DA-A871-D840-AB65-4FB27201EAED}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A3:P33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" topLeftCell="B11" zoomScale="92" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20:P29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -603,228 +918,705 @@
     <col min="3" max="3" width="5" customWidth="1"/>
     <col min="4" max="4" width="18.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="25.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="3" spans="1:16" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="J3" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+    </row>
+    <row r="4" spans="1:16" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="12" t="s">
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="J4" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="35" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B5" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C5" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D5" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E5" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G5" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="J5" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="K5" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="L5" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="M5" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="N5" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="O5" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="P5" s="34" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C6" s="2">
         <v>11</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E6" s="3">
         <v>8.3000000000000007</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G6" s="3">
         <v>6.6</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="J6" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="22">
+        <v>8</v>
+      </c>
+      <c r="L6" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="M6" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="N6" s="22">
+        <v>15</v>
+      </c>
+      <c r="O6" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="P6" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C7" s="2">
         <v>14</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E7" s="3">
         <v>12.5</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G7" s="3">
         <v>11.7</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="J7" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="K7" s="22">
         <v>6</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="L7" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="M7" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="N7" s="23">
+        <v>38</v>
+      </c>
+      <c r="O7" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="P7" s="19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C8" s="2">
         <v>38</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E8" s="3">
         <v>2.2999999999999998</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G8" s="3">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="J8" s="16"/>
+      <c r="K8" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="L8" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="M8" s="25"/>
+      <c r="N8" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="O8" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="P8" s="19"/>
+    </row>
+    <row r="9" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C9" s="5">
         <v>15</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E9" s="6">
         <v>4</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F9" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G9" s="6">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="29"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="P9" s="25"/>
+    </row>
+    <row r="10" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="12" t="s">
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="J10" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="K10" s="22">
+        <v>14</v>
+      </c>
+      <c r="L10" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="M10" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="N10" s="22">
+        <v>15</v>
+      </c>
+      <c r="O10" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="P10" s="19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B11" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C11" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D11" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E11" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F11" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="G11" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+      <c r="J11" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="K11" s="22">
+        <v>11</v>
+      </c>
+      <c r="L11" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="M11" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="N11" s="23">
+        <v>38</v>
+      </c>
+      <c r="O11" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="P11" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C12" s="2">
         <v>37</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E12" s="3">
         <v>3.7</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G12" s="3">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="J12" s="16"/>
+      <c r="K12" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="L12" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="M12" s="25"/>
+      <c r="N12" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="O12" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="P12" s="19"/>
+    </row>
+    <row r="13" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C13" s="5">
         <v>13</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D13" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E13" s="6">
         <v>7.3</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F13" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G13" s="6">
         <v>2.9</v>
       </c>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="M13" s="29"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="P13" s="25"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="J14" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="K14" s="22">
+        <v>6</v>
+      </c>
+      <c r="L14" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="M14" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="N14" s="22">
+        <v>13</v>
+      </c>
+      <c r="O14" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="P14" s="33" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="J15" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="K15" s="22">
+        <v>5</v>
+      </c>
+      <c r="L15" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="M15" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="N15" s="23">
+        <v>37</v>
+      </c>
+      <c r="O15" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="P15" s="33" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J16" s="13"/>
+      <c r="K16" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="L16" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="M16" s="14"/>
+      <c r="N16" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="O16" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="P16" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="10:16" ht="37" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J20" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="K20" s="38"/>
+      <c r="L20" s="38"/>
+      <c r="M20" s="38"/>
+      <c r="N20" s="38"/>
+      <c r="O20" s="38"/>
+      <c r="P20" s="38"/>
+    </row>
+    <row r="21" spans="10:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J21" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="K21" s="39"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="N21" s="39"/>
+      <c r="O21" s="39"/>
+      <c r="P21" s="35" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="10:16" x14ac:dyDescent="0.2">
+      <c r="J22" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="K22" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="L22" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="M22" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="N22" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="O22" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="P22" s="34" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="10:16" x14ac:dyDescent="0.2">
+      <c r="J23" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="K23" s="22">
+        <v>8</v>
+      </c>
+      <c r="L23" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="M23" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="N23" s="22">
+        <v>15</v>
+      </c>
+      <c r="O23" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="P23" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="10:16" x14ac:dyDescent="0.2">
+      <c r="J24" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="K24" s="22">
+        <v>6</v>
+      </c>
+      <c r="L24" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="M24" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="N24" s="23">
+        <v>38</v>
+      </c>
+      <c r="O24" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="P24" s="19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="10:16" x14ac:dyDescent="0.2">
+      <c r="J25" s="16"/>
+      <c r="K25" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="L25" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="M25" s="25"/>
+      <c r="N25" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="O25" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="P25" s="19"/>
+    </row>
+    <row r="26" spans="10:16" x14ac:dyDescent="0.2">
+      <c r="J26" s="28"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="29"/>
+      <c r="N26" s="28"/>
+      <c r="O26" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="P26" s="25"/>
+    </row>
+    <row r="27" spans="10:16" x14ac:dyDescent="0.2">
+      <c r="J27" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="22">
+        <v>14</v>
+      </c>
+      <c r="L27" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="M27" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="N27" s="22">
+        <v>15</v>
+      </c>
+      <c r="O27" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="P27" s="19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="10:16" x14ac:dyDescent="0.2">
+      <c r="J28" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="K28" s="22">
+        <v>11</v>
+      </c>
+      <c r="L28" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="M28" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="N28" s="23">
+        <v>38</v>
+      </c>
+      <c r="O28" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="P28" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="10:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J29" s="47"/>
+      <c r="K29" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="L29" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="M29" s="48"/>
+      <c r="N29" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="O29" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="P29" s="49"/>
+    </row>
+    <row r="30" spans="10:16" x14ac:dyDescent="0.2">
+      <c r="J30" s="41"/>
+      <c r="K30" s="41"/>
+      <c r="L30" s="42"/>
+      <c r="M30" s="41"/>
+      <c r="N30" s="43"/>
+      <c r="O30" s="42"/>
+      <c r="P30" s="41"/>
+    </row>
+    <row r="31" spans="10:16" x14ac:dyDescent="0.2">
+      <c r="J31" s="44"/>
+      <c r="K31" s="23"/>
+      <c r="L31" s="23"/>
+      <c r="M31" s="44"/>
+      <c r="N31" s="23"/>
+      <c r="O31" s="23"/>
+      <c r="P31" s="23"/>
+    </row>
+    <row r="32" spans="10:16" x14ac:dyDescent="0.2">
+      <c r="J32" s="44"/>
+      <c r="K32" s="23"/>
+      <c r="L32" s="23"/>
+      <c r="M32" s="44"/>
+      <c r="N32" s="23"/>
+      <c r="O32" s="23"/>
+      <c r="P32" s="23"/>
+    </row>
+    <row r="33" spans="10:16" x14ac:dyDescent="0.2">
+      <c r="J33" s="45"/>
+      <c r="K33" s="43"/>
+      <c r="L33" s="23"/>
+      <c r="M33" s="45"/>
+      <c r="N33" s="43"/>
+      <c r="O33" s="23"/>
+      <c r="P33" s="46"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
+  <mergeCells count="7">
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="J3:P3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/tables/RGM EnvSx.xlsx
+++ b/tables/RGM EnvSx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewpierson/Desktop/Heloderma Spatial/Heloderma Spatial/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5BDD26E-3D39-1743-8E71-34A6873AC615}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFE84A56-A857-A74E-8A81-B1203FEA605C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2640" yWindow="800" windowWidth="24700" windowHeight="11560" xr2:uid="{DB427BCB-D21C-CB48-B2D9-6394BCDE6647}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="57">
   <si>
     <t>Environment</t>
   </si>
@@ -340,7 +340,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -478,11 +478,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -567,15 +576,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -588,9 +588,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -907,8 +950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45CD31DA-A871-D840-AB65-4FB27201EAED}">
   <dimension ref="A3:P33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B11" zoomScale="92" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20:P29"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="92" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20:O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -924,24 +967,24 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:16" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="J3" s="38" t="s">
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="J3" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="38"/>
-      <c r="P3" s="38"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="44"/>
     </row>
     <row r="4" spans="1:16" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
@@ -953,16 +996,16 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
-      <c r="J4" s="39" t="s">
+      <c r="J4" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="40" t="s">
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="N4" s="39"/>
-      <c r="O4" s="39"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="45"/>
       <c r="P4" s="35" t="s">
         <v>29</v>
       </c>
@@ -1384,239 +1427,224 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="10:16" ht="37" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="J20" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="K20" s="38"/>
-      <c r="L20" s="38"/>
-      <c r="M20" s="38"/>
-      <c r="N20" s="38"/>
-      <c r="O20" s="38"/>
-      <c r="P20" s="38"/>
+    <row r="20" spans="10:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J20" s="63"/>
+      <c r="K20" s="63"/>
+      <c r="L20" s="63"/>
+      <c r="M20" s="63"/>
+      <c r="N20" s="63"/>
+      <c r="O20" s="63"/>
     </row>
     <row r="21" spans="10:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="J21" s="39" t="s">
+      <c r="J21" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="K21" s="39"/>
-      <c r="L21" s="39"/>
-      <c r="M21" s="40" t="s">
+      <c r="K21" s="49"/>
+      <c r="L21" s="49"/>
+      <c r="M21" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="N21" s="39"/>
-      <c r="O21" s="39"/>
-      <c r="P21" s="35" t="s">
-        <v>29</v>
-      </c>
+      <c r="N21" s="49"/>
+      <c r="O21" s="49"/>
+      <c r="P21" s="48"/>
     </row>
     <row r="22" spans="10:16" x14ac:dyDescent="0.2">
-      <c r="J22" s="20" t="s">
+      <c r="J22" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="K22" s="20" t="s">
+      <c r="K22" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="L22" s="20" t="s">
+      <c r="L22" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="M22" s="21" t="s">
+      <c r="M22" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="N22" s="20" t="s">
+      <c r="N22" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="O22" s="20" t="s">
+      <c r="O22" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="P22" s="34" t="s">
-        <v>42</v>
-      </c>
+      <c r="P22" s="48"/>
     </row>
     <row r="23" spans="10:16" x14ac:dyDescent="0.2">
-      <c r="J23" s="17" t="s">
+      <c r="J23" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="K23" s="22">
+      <c r="K23" s="2">
         <v>8</v>
       </c>
-      <c r="L23" s="22" t="s">
+      <c r="L23" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="M23" s="19" t="s">
+      <c r="M23" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="N23" s="22">
+      <c r="N23" s="2">
         <v>15</v>
       </c>
-      <c r="O23" s="24" t="s">
+      <c r="O23" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="P23" s="19" t="s">
-        <v>53</v>
-      </c>
+      <c r="P23" s="41"/>
     </row>
     <row r="24" spans="10:16" x14ac:dyDescent="0.2">
-      <c r="J24" s="17" t="s">
+      <c r="J24" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K24" s="22">
+      <c r="K24" s="2">
         <v>6</v>
       </c>
-      <c r="L24" s="22" t="s">
+      <c r="L24" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="M24" s="19" t="s">
+      <c r="M24" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="N24" s="23">
+      <c r="N24" s="53">
         <v>38</v>
       </c>
-      <c r="O24" s="22" t="s">
+      <c r="O24" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="P24" s="19" t="s">
-        <v>55</v>
-      </c>
+      <c r="P24" s="41"/>
     </row>
     <row r="25" spans="10:16" x14ac:dyDescent="0.2">
-      <c r="J25" s="16"/>
-      <c r="K25" s="26" t="s">
+      <c r="J25" s="54"/>
+      <c r="K25" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="L25" s="23" t="s">
+      <c r="L25" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="M25" s="25"/>
-      <c r="N25" s="26" t="s">
+      <c r="M25" s="56"/>
+      <c r="N25" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="O25" s="22" t="s">
+      <c r="O25" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="P25" s="19"/>
+      <c r="P25" s="41"/>
     </row>
     <row r="26" spans="10:16" x14ac:dyDescent="0.2">
-      <c r="J26" s="28"/>
-      <c r="K26" s="28"/>
+      <c r="J26" s="57"/>
+      <c r="K26" s="57"/>
       <c r="L26" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="M26" s="29"/>
-      <c r="N26" s="28"/>
-      <c r="O26" s="31" t="s">
+      <c r="M26" s="58"/>
+      <c r="N26" s="57"/>
+      <c r="O26" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="P26" s="25"/>
+      <c r="P26" s="38"/>
     </row>
     <row r="27" spans="10:16" x14ac:dyDescent="0.2">
-      <c r="J27" s="17" t="s">
+      <c r="J27" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="K27" s="22">
+      <c r="K27" s="2">
         <v>14</v>
       </c>
-      <c r="L27" s="22" t="s">
+      <c r="L27" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="M27" s="19" t="s">
+      <c r="M27" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="N27" s="22">
+      <c r="N27" s="2">
         <v>15</v>
       </c>
-      <c r="O27" s="32" t="s">
+      <c r="O27" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="P27" s="19" t="s">
-        <v>54</v>
-      </c>
+      <c r="P27" s="41"/>
     </row>
     <row r="28" spans="10:16" x14ac:dyDescent="0.2">
-      <c r="J28" s="17" t="s">
+      <c r="J28" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K28" s="22">
+      <c r="K28" s="2">
         <v>11</v>
       </c>
-      <c r="L28" s="22" t="s">
+      <c r="L28" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="M28" s="19" t="s">
+      <c r="M28" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="N28" s="23">
+      <c r="N28" s="53">
         <v>38</v>
       </c>
-      <c r="O28" s="22" t="s">
+      <c r="O28" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="P28" s="19" t="s">
-        <v>40</v>
-      </c>
+      <c r="P28" s="41"/>
     </row>
     <row r="29" spans="10:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="J29" s="47"/>
-      <c r="K29" s="36" t="s">
+      <c r="J29" s="60"/>
+      <c r="K29" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="L29" s="37" t="s">
+      <c r="L29" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="M29" s="48"/>
-      <c r="N29" s="36" t="s">
+      <c r="M29" s="62"/>
+      <c r="N29" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="O29" s="37" t="s">
+      <c r="O29" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="P29" s="49"/>
+      <c r="P29" s="41"/>
     </row>
     <row r="30" spans="10:16" x14ac:dyDescent="0.2">
-      <c r="J30" s="41"/>
-      <c r="K30" s="41"/>
-      <c r="L30" s="42"/>
-      <c r="M30" s="41"/>
-      <c r="N30" s="43"/>
-      <c r="O30" s="42"/>
-      <c r="P30" s="41"/>
+      <c r="J30" s="38"/>
+      <c r="K30" s="38"/>
+      <c r="L30" s="39"/>
+      <c r="M30" s="38"/>
+      <c r="N30" s="40"/>
+      <c r="O30" s="39"/>
+      <c r="P30" s="38"/>
     </row>
     <row r="31" spans="10:16" x14ac:dyDescent="0.2">
-      <c r="J31" s="44"/>
+      <c r="J31" s="41"/>
       <c r="K31" s="23"/>
       <c r="L31" s="23"/>
-      <c r="M31" s="44"/>
+      <c r="M31" s="41"/>
       <c r="N31" s="23"/>
       <c r="O31" s="23"/>
       <c r="P31" s="23"/>
     </row>
     <row r="32" spans="10:16" x14ac:dyDescent="0.2">
-      <c r="J32" s="44"/>
+      <c r="J32" s="41"/>
       <c r="K32" s="23"/>
       <c r="L32" s="23"/>
-      <c r="M32" s="44"/>
+      <c r="M32" s="41"/>
       <c r="N32" s="23"/>
       <c r="O32" s="23"/>
       <c r="P32" s="23"/>
     </row>
     <row r="33" spans="10:16" x14ac:dyDescent="0.2">
-      <c r="J33" s="45"/>
-      <c r="K33" s="43"/>
+      <c r="J33" s="42"/>
+      <c r="K33" s="40"/>
       <c r="L33" s="23"/>
-      <c r="M33" s="45"/>
-      <c r="N33" s="43"/>
+      <c r="M33" s="42"/>
+      <c r="N33" s="40"/>
       <c r="O33" s="23"/>
-      <c r="P33" s="46"/>
+      <c r="P33" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="J20:P20"/>
     <mergeCell ref="J21:L21"/>
     <mergeCell ref="M21:O21"/>
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="J4:L4"/>
     <mergeCell ref="M4:O4"/>
     <mergeCell ref="J3:P3"/>
+    <mergeCell ref="J20:O20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/tables/RGM EnvSx.xlsx
+++ b/tables/RGM EnvSx.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewpierson/Desktop/Heloderma Spatial/Heloderma Spatial/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFE84A56-A857-A74E-8A81-B1203FEA605C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{521D69F9-C4EE-9141-B9AC-DA6A9D32082F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="800" windowWidth="24700" windowHeight="11560" xr2:uid="{DB427BCB-D21C-CB48-B2D9-6394BCDE6647}"/>
+    <workbookView minimized="1" xWindow="2640" yWindow="800" windowWidth="24700" windowHeight="11560" xr2:uid="{DB427BCB-D21C-CB48-B2D9-6394BCDE6647}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="61">
   <si>
     <t>Environment</t>
   </si>
@@ -249,9 +249,8 @@
         <b/>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">Table 1 | </t>
     </r>
@@ -259,12 +258,23 @@
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">Adjusted home range sizes by estimation method and post-hoc pairwise comparisons between the SC and OH populations. KDEs for OH were estimated only for 2002. Therefore, pairwise comparisons were not calculated for KDEs. Home range estimations are given in hectares. </t>
     </r>
+  </si>
+  <si>
+    <t>Average =</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average = </t>
+  </si>
+  <si>
+    <t>Nonsubsidized</t>
+  </si>
+  <si>
+    <t>Subsidized</t>
   </si>
 </sst>
 </file>
@@ -274,7 +284,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -319,13 +329,6 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
@@ -340,7 +343,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -414,26 +417,6 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -441,17 +424,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -468,9 +440,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top style="thin">
         <color indexed="64"/>
-      </left>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right/>
       <top/>
       <bottom style="thin">
@@ -481,7 +460,7 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom/>
@@ -491,7 +470,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -519,68 +498,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -591,22 +523,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -621,9 +541,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -631,9 +551,62 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -948,10 +921,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45CD31DA-A871-D840-AB65-4FB27201EAED}">
-  <dimension ref="A3:P33"/>
+  <dimension ref="A3:P46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="92" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20:O29"/>
+    <sheetView tabSelected="1" zoomScale="117" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5:P29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -967,684 +940,878 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:16" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="J3" s="44" t="s">
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="J3" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="44"/>
-      <c r="O3" s="44"/>
-      <c r="P3" s="44"/>
-    </row>
-    <row r="4" spans="1:16" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="J4" s="45" t="s">
-        <v>27</v>
-      </c>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="56"/>
+      <c r="P3" s="56"/>
+    </row>
+    <row r="4" spans="1:16" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="23"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="J4" s="45"/>
       <c r="K4" s="45"/>
       <c r="L4" s="45"/>
-      <c r="M4" s="46" t="s">
-        <v>28</v>
-      </c>
+      <c r="M4" s="45"/>
       <c r="N4" s="45"/>
       <c r="O4" s="45"/>
-      <c r="P4" s="35" t="s">
+      <c r="P4" s="45"/>
+    </row>
+    <row r="5" spans="1:16" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="J5" s="58" t="s">
+        <v>59</v>
+      </c>
+      <c r="K5" s="58"/>
+      <c r="L5" s="58"/>
+      <c r="M5" s="58" t="s">
+        <v>60</v>
+      </c>
+      <c r="N5" s="58"/>
+      <c r="O5" s="58"/>
+      <c r="P5" s="48" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" s="11" t="s">
+    <row r="6" spans="1:16" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="46"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="49"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B7" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C7" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D7" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F7" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="20" t="s">
+      <c r="J7" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="K5" s="20" t="s">
+      <c r="K7" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="L5" s="20" t="s">
+      <c r="L7" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="M5" s="21" t="s">
+      <c r="M7" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="N5" s="20" t="s">
+      <c r="N7" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="O5" s="20" t="s">
+      <c r="O7" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="34" t="s">
+      <c r="P7" s="50" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" s="42"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="38"/>
+      <c r="O8" s="38"/>
+      <c r="P8" s="25"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C9" s="2">
         <v>11</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E9" s="3">
         <v>8.3000000000000007</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G9" s="3">
         <v>6.6</v>
       </c>
-      <c r="J6" s="17" t="s">
+      <c r="J9" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="K6" s="22">
+      <c r="K9" s="14">
         <v>8</v>
       </c>
-      <c r="L6" s="22" t="s">
+      <c r="L9" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="M6" s="19" t="s">
+      <c r="M9" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="N6" s="22">
+      <c r="N9" s="15">
         <v>15</v>
       </c>
-      <c r="O6" s="24" t="s">
+      <c r="O9" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="P6" s="19" t="s">
+      <c r="P9" s="20" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="3"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="20"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C11" s="2">
         <v>14</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E11" s="3">
         <v>12.5</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G11" s="3">
         <v>11.7</v>
       </c>
-      <c r="J7" s="17" t="s">
+      <c r="J11" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="K7" s="22">
+      <c r="K11" s="14">
         <v>6</v>
       </c>
-      <c r="L7" s="22" t="s">
+      <c r="L11" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="M7" s="19" t="s">
+      <c r="M11" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="N7" s="23">
+      <c r="N11" s="15">
         <v>38</v>
       </c>
-      <c r="O7" s="22" t="s">
+      <c r="O11" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="P7" s="19" t="s">
+      <c r="P11" s="20" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="3"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="20"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C13" s="2">
         <v>38</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E13" s="3">
         <v>2.2999999999999998</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G13" s="3">
         <v>1.4</v>
       </c>
-      <c r="J8" s="16"/>
-      <c r="K8" s="26" t="s">
+      <c r="J13" s="20"/>
+      <c r="K13" s="51" t="s">
+        <v>58</v>
+      </c>
+      <c r="L13" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="M13" s="20"/>
+      <c r="N13" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="O13" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="P13" s="20"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="3"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="20"/>
+    </row>
+    <row r="15" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="5">
+        <v>15</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="6">
+        <v>4</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="6">
+        <v>2.9</v>
+      </c>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="M15" s="20"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="P15" s="20"/>
+    </row>
+    <row r="16" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="6"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="38"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="38"/>
+      <c r="P16" s="20"/>
+    </row>
+    <row r="17" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="J17" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="K17" s="14">
+        <v>14</v>
+      </c>
+      <c r="L17" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="M17" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="N17" s="15">
+        <v>15</v>
+      </c>
+      <c r="O17" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="P17" s="20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="40"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="20"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="20"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A19" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J19" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="K19" s="14">
+        <v>11</v>
+      </c>
+      <c r="L19" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="M19" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="N19" s="15">
+        <v>38</v>
+      </c>
+      <c r="O19" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="P19" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A20" s="42"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="20"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="20"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="2">
+        <v>37</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="3">
+        <v>3.7</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="J21" s="20"/>
+      <c r="K21" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="L21" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="M21" s="20"/>
+      <c r="N21" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="O21" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="P21" s="20"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A22" s="1"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="3"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="51"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="20"/>
+      <c r="N22" s="51"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="20"/>
+    </row>
+    <row r="23" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="5">
+        <v>13</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="6">
+        <v>7.3</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="6">
+        <v>2.9</v>
+      </c>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="M23" s="20"/>
+      <c r="N23" s="51"/>
+      <c r="O23" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="P23" s="20"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A24" s="43"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="44"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="38"/>
+      <c r="M24" s="20"/>
+      <c r="N24" s="19"/>
+      <c r="O24" s="38"/>
+      <c r="P24" s="20"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="J25" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="K25" s="14">
+        <v>6</v>
+      </c>
+      <c r="L25" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="M25" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="N25" s="15">
+        <v>13</v>
+      </c>
+      <c r="O25" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="P25" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="J26" s="13"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="20"/>
+      <c r="N26" s="15"/>
+      <c r="O26" s="15"/>
+      <c r="P26" s="15"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="J27" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="K27" s="14">
+        <v>5</v>
+      </c>
+      <c r="L27" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="M27" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="N27" s="15">
+        <v>37</v>
+      </c>
+      <c r="O27" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="P27" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="J28" s="13"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="20"/>
+      <c r="N28" s="15"/>
+      <c r="O28" s="15"/>
+      <c r="P28" s="15"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="J29" s="59"/>
+      <c r="K29" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="L29" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="M29" s="59"/>
+      <c r="N29" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="O29" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="P29" s="39" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="10:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J33" s="57"/>
+      <c r="K33" s="57"/>
+      <c r="L33" s="57"/>
+      <c r="M33" s="57"/>
+      <c r="N33" s="57"/>
+      <c r="O33" s="57"/>
+    </row>
+    <row r="34" spans="10:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J34" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="K34" s="53"/>
+      <c r="L34" s="53"/>
+      <c r="M34" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="N34" s="53"/>
+      <c r="O34" s="53"/>
+      <c r="P34" s="25"/>
+    </row>
+    <row r="35" spans="10:16" x14ac:dyDescent="0.2">
+      <c r="J35" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="K35" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="L35" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="M35" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="N35" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="O35" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="P35" s="25"/>
+    </row>
+    <row r="36" spans="10:16" x14ac:dyDescent="0.2">
+      <c r="J36" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K36" s="2">
+        <v>8</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M36" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="N36" s="2">
+        <v>15</v>
+      </c>
+      <c r="O36" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="P36" s="20"/>
+    </row>
+    <row r="37" spans="10:16" x14ac:dyDescent="0.2">
+      <c r="J37" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K37" s="2">
+        <v>6</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M37" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="N37" s="28">
+        <v>38</v>
+      </c>
+      <c r="O37" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P37" s="20"/>
+    </row>
+    <row r="38" spans="10:16" x14ac:dyDescent="0.2">
+      <c r="J38" s="29"/>
+      <c r="K38" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="L8" s="23" t="s">
+      <c r="L38" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="M8" s="25"/>
-      <c r="N8" s="26" t="s">
+      <c r="M38" s="31"/>
+      <c r="N38" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="O8" s="22" t="s">
+      <c r="O38" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="P8" s="19"/>
-    </row>
-    <row r="9" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="5">
+      <c r="P38" s="20"/>
+    </row>
+    <row r="39" spans="10:16" x14ac:dyDescent="0.2">
+      <c r="J39" s="32"/>
+      <c r="K39" s="32"/>
+      <c r="L39" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="M39" s="33"/>
+      <c r="N39" s="32"/>
+      <c r="O39" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="P39" s="17"/>
+    </row>
+    <row r="40" spans="10:16" x14ac:dyDescent="0.2">
+      <c r="J40" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K40" s="2">
+        <v>14</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M40" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="N40" s="2">
         <v>15</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="6">
-        <v>4</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="6">
-        <v>2.9</v>
-      </c>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="M9" s="29"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="P9" s="25"/>
-    </row>
-    <row r="10" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="J10" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="K10" s="22">
-        <v>14</v>
-      </c>
-      <c r="L10" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="M10" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="N10" s="22">
-        <v>15</v>
-      </c>
-      <c r="O10" s="32" t="s">
+      <c r="O40" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="P10" s="19" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F11" s="12" t="s">
+      <c r="P40" s="20"/>
+    </row>
+    <row r="41" spans="10:16" x14ac:dyDescent="0.2">
+      <c r="J41" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K41" s="2">
         <v>11</v>
       </c>
-      <c r="G11" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J11" s="17" t="s">
+      <c r="L41" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M41" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="K11" s="22">
-        <v>11</v>
-      </c>
-      <c r="L11" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="M11" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="N11" s="23">
+      <c r="N41" s="28">
         <v>38</v>
       </c>
-      <c r="O11" s="22" t="s">
+      <c r="O41" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="P11" s="19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="2">
-        <v>37</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="3">
-        <v>3.7</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="3">
-        <v>1.4</v>
-      </c>
-      <c r="J12" s="16"/>
-      <c r="K12" s="26" t="s">
+      <c r="P41" s="20"/>
+    </row>
+    <row r="42" spans="10:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J42" s="35"/>
+      <c r="K42" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="L12" s="22" t="s">
+      <c r="L42" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="M12" s="25"/>
-      <c r="N12" s="26" t="s">
+      <c r="M42" s="37"/>
+      <c r="N42" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="O12" s="22" t="s">
+      <c r="O42" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="P12" s="19"/>
-    </row>
-    <row r="13" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="5">
-        <v>13</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="6">
-        <v>7.3</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="6">
-        <v>2.9</v>
-      </c>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="M13" s="29"/>
-      <c r="N13" s="30"/>
-      <c r="O13" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="P13" s="25"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="J14" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="K14" s="22">
-        <v>6</v>
-      </c>
-      <c r="L14" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="M14" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="N14" s="22">
-        <v>13</v>
-      </c>
-      <c r="O14" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="P14" s="33" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="J15" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="K15" s="22">
-        <v>5</v>
-      </c>
-      <c r="L15" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="M15" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="N15" s="23">
-        <v>37</v>
-      </c>
-      <c r="O15" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="P15" s="33" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="J16" s="13"/>
-      <c r="K16" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="L16" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="M16" s="14"/>
-      <c r="N16" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="O16" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="P16" s="15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="10:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="J20" s="63"/>
-      <c r="K20" s="63"/>
-      <c r="L20" s="63"/>
-      <c r="M20" s="63"/>
-      <c r="N20" s="63"/>
-      <c r="O20" s="63"/>
-    </row>
-    <row r="21" spans="10:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="J21" s="49" t="s">
-        <v>27</v>
-      </c>
-      <c r="K21" s="49"/>
-      <c r="L21" s="49"/>
-      <c r="M21" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="N21" s="49"/>
-      <c r="O21" s="49"/>
-      <c r="P21" s="48"/>
-    </row>
-    <row r="22" spans="10:16" x14ac:dyDescent="0.2">
-      <c r="J22" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="K22" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="L22" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="M22" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="N22" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="O22" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="P22" s="48"/>
-    </row>
-    <row r="23" spans="10:16" x14ac:dyDescent="0.2">
-      <c r="J23" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K23" s="2">
-        <v>8</v>
-      </c>
-      <c r="L23" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="M23" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="N23" s="2">
-        <v>15</v>
-      </c>
-      <c r="O23" s="53" t="s">
-        <v>51</v>
-      </c>
-      <c r="P23" s="41"/>
-    </row>
-    <row r="24" spans="10:16" x14ac:dyDescent="0.2">
-      <c r="J24" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K24" s="2">
-        <v>6</v>
-      </c>
-      <c r="L24" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="M24" s="52" t="s">
-        <v>31</v>
-      </c>
-      <c r="N24" s="53">
-        <v>38</v>
-      </c>
-      <c r="O24" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="P24" s="41"/>
-    </row>
-    <row r="25" spans="10:16" x14ac:dyDescent="0.2">
-      <c r="J25" s="54"/>
-      <c r="K25" s="55" t="s">
-        <v>33</v>
-      </c>
-      <c r="L25" s="53" t="s">
-        <v>37</v>
-      </c>
-      <c r="M25" s="56"/>
-      <c r="N25" s="55" t="s">
-        <v>32</v>
-      </c>
-      <c r="O25" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="P25" s="41"/>
-    </row>
-    <row r="26" spans="10:16" x14ac:dyDescent="0.2">
-      <c r="J26" s="57"/>
-      <c r="K26" s="57"/>
-      <c r="L26" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="M26" s="58"/>
-      <c r="N26" s="57"/>
-      <c r="O26" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="P26" s="38"/>
-    </row>
-    <row r="27" spans="10:16" x14ac:dyDescent="0.2">
-      <c r="J27" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K27" s="2">
-        <v>14</v>
-      </c>
-      <c r="L27" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="M27" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="N27" s="2">
-        <v>15</v>
-      </c>
-      <c r="O27" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="P27" s="41"/>
-    </row>
-    <row r="28" spans="10:16" x14ac:dyDescent="0.2">
-      <c r="J28" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K28" s="2">
-        <v>11</v>
-      </c>
-      <c r="L28" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="M28" s="52" t="s">
-        <v>31</v>
-      </c>
-      <c r="N28" s="53">
-        <v>38</v>
-      </c>
-      <c r="O28" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="P28" s="41"/>
-    </row>
-    <row r="29" spans="10:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="J29" s="60"/>
-      <c r="K29" s="61" t="s">
-        <v>32</v>
-      </c>
-      <c r="L29" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="M29" s="62"/>
-      <c r="N29" s="61" t="s">
-        <v>32</v>
-      </c>
-      <c r="O29" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="P29" s="41"/>
-    </row>
-    <row r="30" spans="10:16" x14ac:dyDescent="0.2">
-      <c r="J30" s="38"/>
-      <c r="K30" s="38"/>
-      <c r="L30" s="39"/>
-      <c r="M30" s="38"/>
-      <c r="N30" s="40"/>
-      <c r="O30" s="39"/>
-      <c r="P30" s="38"/>
-    </row>
-    <row r="31" spans="10:16" x14ac:dyDescent="0.2">
-      <c r="J31" s="41"/>
-      <c r="K31" s="23"/>
-      <c r="L31" s="23"/>
-      <c r="M31" s="41"/>
-      <c r="N31" s="23"/>
-      <c r="O31" s="23"/>
-      <c r="P31" s="23"/>
-    </row>
-    <row r="32" spans="10:16" x14ac:dyDescent="0.2">
-      <c r="J32" s="41"/>
-      <c r="K32" s="23"/>
-      <c r="L32" s="23"/>
-      <c r="M32" s="41"/>
-      <c r="N32" s="23"/>
-      <c r="O32" s="23"/>
-      <c r="P32" s="23"/>
-    </row>
-    <row r="33" spans="10:16" x14ac:dyDescent="0.2">
-      <c r="J33" s="42"/>
-      <c r="K33" s="40"/>
-      <c r="L33" s="23"/>
-      <c r="M33" s="42"/>
-      <c r="N33" s="40"/>
-      <c r="O33" s="23"/>
-      <c r="P33" s="43"/>
+      <c r="P42" s="20"/>
+    </row>
+    <row r="43" spans="10:16" x14ac:dyDescent="0.2">
+      <c r="J43" s="17"/>
+      <c r="K43" s="17"/>
+      <c r="L43" s="18"/>
+      <c r="M43" s="17"/>
+      <c r="N43" s="19"/>
+      <c r="O43" s="18"/>
+      <c r="P43" s="17"/>
+    </row>
+    <row r="44" spans="10:16" x14ac:dyDescent="0.2">
+      <c r="J44" s="20"/>
+      <c r="K44" s="15"/>
+      <c r="L44" s="15"/>
+      <c r="M44" s="20"/>
+      <c r="N44" s="15"/>
+      <c r="O44" s="15"/>
+      <c r="P44" s="15"/>
+    </row>
+    <row r="45" spans="10:16" x14ac:dyDescent="0.2">
+      <c r="J45" s="20"/>
+      <c r="K45" s="15"/>
+      <c r="L45" s="15"/>
+      <c r="M45" s="20"/>
+      <c r="N45" s="15"/>
+      <c r="O45" s="15"/>
+      <c r="P45" s="15"/>
+    </row>
+    <row r="46" spans="10:16" x14ac:dyDescent="0.2">
+      <c r="J46" s="21"/>
+      <c r="K46" s="19"/>
+      <c r="L46" s="15"/>
+      <c r="M46" s="21"/>
+      <c r="N46" s="19"/>
+      <c r="O46" s="15"/>
+      <c r="P46" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="M34:O34"/>
     <mergeCell ref="A3:G3"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="M5:O5"/>
     <mergeCell ref="J3:P3"/>
-    <mergeCell ref="J20:O20"/>
+    <mergeCell ref="J33:O33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/tables/RGM EnvSx.xlsx
+++ b/tables/RGM EnvSx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewpierson/Desktop/Heloderma Spatial/Heloderma Spatial/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{521D69F9-C4EE-9141-B9AC-DA6A9D32082F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB161BDD-DB20-D04F-AE9B-CBF469228A79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2640" yWindow="800" windowWidth="24700" windowHeight="11560" xr2:uid="{DB427BCB-D21C-CB48-B2D9-6394BCDE6647}"/>
+    <workbookView xWindow="2640" yWindow="800" windowWidth="24700" windowHeight="14080" xr2:uid="{DB427BCB-D21C-CB48-B2D9-6394BCDE6647}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="63">
   <si>
     <t>Environment</t>
   </si>
@@ -172,76 +172,13 @@
     <t>Female</t>
   </si>
   <si>
-    <t>Avg. =</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Avg. = </t>
-  </si>
-  <si>
-    <t>68.3 ± 11.9 S.E.</t>
-  </si>
-  <si>
-    <t>36.8 ± 4.3 S.E.</t>
-  </si>
-  <si>
-    <t>52.8 ± 7.6 S.E.</t>
-  </si>
-  <si>
-    <t>32.8 ± 4.1 S.E.</t>
-  </si>
-  <si>
-    <t>7.7 ± 0.6 S.E.</t>
-  </si>
-  <si>
-    <t>26.1 ± 1.7 S.E.</t>
-  </si>
-  <si>
     <t>df = 69.2, t = 1.84,  P = 0.06</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>Pairwise Comparisons</t>
   </si>
   <si>
-    <t>13.4 ± 4.0 S.E.</t>
-  </si>
-  <si>
-    <t>43.5 ± 6.1 S.E.</t>
-  </si>
-  <si>
-    <t>8.2 ± 3.2 S.E.</t>
-  </si>
-  <si>
-    <t>23.8 ± 6.08 S.E.</t>
-  </si>
-  <si>
     <t>33.7 ± 5.5 S.E.</t>
-  </si>
-  <si>
-    <t>10.8 ± 3.12 S.E.</t>
-  </si>
-  <si>
-    <t>21.8 ± 4.1 S.E.</t>
-  </si>
-  <si>
-    <t>43.7 ± 4.2 S.E.</t>
-  </si>
-  <si>
-    <t>10.7 ± 2.6 S.E.</t>
-  </si>
-  <si>
-    <t>5.03 ± 2.0 S.E.</t>
-  </si>
-  <si>
-    <t>df = 60.2, t = 5.98,  P = &lt;0.0001*</t>
-  </si>
-  <si>
-    <t>df = 69.7, t = 3.37,  P = 0.001*</t>
-  </si>
-  <si>
-    <t>df = 58.9, t = 3.26,  P = 0.001*</t>
   </si>
   <si>
     <r>
@@ -265,16 +202,85 @@
     </r>
   </si>
   <si>
-    <t>Average =</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average = </t>
-  </si>
-  <si>
     <t>Nonsubsidized</t>
   </si>
   <si>
     <t>Subsidized</t>
+  </si>
+  <si>
+    <t>43.7 ± 4.2</t>
+  </si>
+  <si>
+    <t>21.8 ± 4.1</t>
+  </si>
+  <si>
+    <t>32.8 ± 4.1</t>
+  </si>
+  <si>
+    <t>10.7 ± 2.6</t>
+  </si>
+  <si>
+    <t>5.03 ± 2.0</t>
+  </si>
+  <si>
+    <t>7.7 ± 0.6</t>
+  </si>
+  <si>
+    <t>43.5 ± 6.1</t>
+  </si>
+  <si>
+    <t>23.8 ± 6.08</t>
+  </si>
+  <si>
+    <t>Mean =</t>
+  </si>
+  <si>
+    <t>13.4 ± 4.0</t>
+  </si>
+  <si>
+    <t>8.2 ± 3.2</t>
+  </si>
+  <si>
+    <t>10.8 ± 3.12</t>
+  </si>
+  <si>
+    <t>68.3 ± 11.9</t>
+  </si>
+  <si>
+    <t>35.0 ± 3.3</t>
+  </si>
+  <si>
+    <t>23.0 ± 1.8</t>
+  </si>
+  <si>
+    <t>36.8 ± 4.3</t>
+  </si>
+  <si>
+    <t>52.8 ± 7.6</t>
+  </si>
+  <si>
+    <t>26.1 ± 1.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean = </t>
+  </si>
+  <si>
+    <t>33.7 ± 5.5</t>
+  </si>
+  <si>
+    <t>df = 53.0, t = 3.37, P = 0.001</t>
+  </si>
+  <si>
+    <t>df = 52.7, t = 1.91, P = 0.06</t>
+  </si>
+  <si>
+    <t>df = 69.7, t = 3.37,  P = 0.001</t>
+  </si>
+  <si>
+    <t>df = 58.9, t = 3.26,  P = 0.001</t>
+  </si>
+  <si>
+    <t>df = 60.2, t = 5.98,  P = &lt;0.0001</t>
   </si>
 </sst>
 </file>
@@ -588,6 +594,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -597,16 +604,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -923,8 +929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45CD31DA-A871-D840-AB65-4FB27201EAED}">
   <dimension ref="A3:P46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="117" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5:P29"/>
+    <sheetView tabSelected="1" topLeftCell="D3" zoomScale="94" workbookViewId="0">
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -940,24 +946,24 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:16" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="J3" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="K3" s="56"/>
-      <c r="L3" s="56"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="56"/>
-      <c r="O3" s="56"/>
-      <c r="P3" s="56"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="J3" s="58" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="58"/>
+      <c r="P3" s="58"/>
     </row>
     <row r="4" spans="1:16" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="23"/>
@@ -985,16 +991,16 @@
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
-      <c r="J5" s="58" t="s">
-        <v>59</v>
-      </c>
-      <c r="K5" s="58"/>
-      <c r="L5" s="58"/>
-      <c r="M5" s="58" t="s">
-        <v>60</v>
-      </c>
-      <c r="N5" s="58"/>
-      <c r="O5" s="58"/>
+      <c r="J5" s="57" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" s="57"/>
+      <c r="L5" s="57"/>
+      <c r="M5" s="57" t="s">
+        <v>37</v>
+      </c>
+      <c r="N5" s="57"/>
+      <c r="O5" s="57"/>
       <c r="P5" s="48" t="s">
         <v>29</v>
       </c>
@@ -1056,7 +1062,7 @@
         <v>9</v>
       </c>
       <c r="P7" s="50" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
@@ -1104,7 +1110,7 @@
         <v>8</v>
       </c>
       <c r="L9" s="14" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="M9" s="20" t="s">
         <v>30</v>
@@ -1113,10 +1119,10 @@
         <v>15</v>
       </c>
       <c r="O9" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="P9" s="20" t="s">
-        <v>53</v>
+        <v>41</v>
+      </c>
+      <c r="P9" s="15" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
@@ -1133,7 +1139,7 @@
       <c r="M10" s="20"/>
       <c r="N10" s="15"/>
       <c r="O10" s="15"/>
-      <c r="P10" s="20"/>
+      <c r="P10" s="15"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
@@ -1164,7 +1170,7 @@
         <v>6</v>
       </c>
       <c r="L11" s="14" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="M11" s="20" t="s">
         <v>31</v>
@@ -1173,10 +1179,10 @@
         <v>38</v>
       </c>
       <c r="O11" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="P11" s="20" t="s">
-        <v>55</v>
+        <v>42</v>
+      </c>
+      <c r="P11" s="15" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
@@ -1193,7 +1199,7 @@
       <c r="M12" s="20"/>
       <c r="N12" s="15"/>
       <c r="O12" s="15"/>
-      <c r="P12" s="20"/>
+      <c r="P12" s="15"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -1219,19 +1225,19 @@
       </c>
       <c r="J13" s="20"/>
       <c r="K13" s="51" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L13" s="15" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="M13" s="20"/>
       <c r="N13" s="51" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O13" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="P13" s="20"/>
+        <v>43</v>
+      </c>
+      <c r="P13" s="15"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
@@ -1247,7 +1253,7 @@
       <c r="M14" s="20"/>
       <c r="N14" s="19"/>
       <c r="O14" s="15"/>
-      <c r="P14" s="20"/>
+      <c r="P14" s="15"/>
     </row>
     <row r="15" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
@@ -1281,7 +1287,7 @@
       <c r="O15" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="P15" s="20"/>
+      <c r="P15" s="15"/>
     </row>
     <row r="16" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
@@ -1297,7 +1303,7 @@
       <c r="M16" s="20"/>
       <c r="N16" s="20"/>
       <c r="O16" s="38"/>
-      <c r="P16" s="20"/>
+      <c r="P16" s="15"/>
     </row>
     <row r="17" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
@@ -1325,10 +1331,10 @@
         <v>15</v>
       </c>
       <c r="O17" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="P17" s="20" t="s">
-        <v>54</v>
+        <v>47</v>
+      </c>
+      <c r="P17" s="15" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1345,7 +1351,7 @@
       <c r="M18" s="20"/>
       <c r="N18" s="15"/>
       <c r="O18" s="15"/>
-      <c r="P18" s="20"/>
+      <c r="P18" s="15"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
@@ -1376,7 +1382,7 @@
         <v>11</v>
       </c>
       <c r="L19" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M19" s="20" t="s">
         <v>31</v>
@@ -1385,10 +1391,10 @@
         <v>38</v>
       </c>
       <c r="O19" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="P19" s="20" t="s">
-        <v>40</v>
+        <v>48</v>
+      </c>
+      <c r="P19" s="15" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
@@ -1405,7 +1411,7 @@
       <c r="M20" s="20"/>
       <c r="N20" s="15"/>
       <c r="O20" s="15"/>
-      <c r="P20" s="20"/>
+      <c r="P20" s="15"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
@@ -1431,19 +1437,19 @@
       </c>
       <c r="J21" s="20"/>
       <c r="K21" s="51" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="L21" s="15" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="M21" s="20"/>
       <c r="N21" s="51" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O21" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="P21" s="20"/>
+        <v>49</v>
+      </c>
+      <c r="P21" s="15"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
@@ -1459,7 +1465,7 @@
       <c r="M22" s="20"/>
       <c r="N22" s="51"/>
       <c r="O22" s="15"/>
-      <c r="P22" s="20"/>
+      <c r="P22" s="15"/>
     </row>
     <row r="23" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
@@ -1493,7 +1499,7 @@
       <c r="O23" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="P23" s="20"/>
+      <c r="P23" s="15"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="43"/>
@@ -1509,7 +1515,7 @@
       <c r="M24" s="20"/>
       <c r="N24" s="19"/>
       <c r="O24" s="38"/>
-      <c r="P24" s="20"/>
+      <c r="P24" s="15"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="J25" s="13" t="s">
@@ -1519,7 +1525,7 @@
         <v>6</v>
       </c>
       <c r="L25" s="14" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="M25" s="20" t="s">
         <v>30</v>
@@ -1528,10 +1534,10 @@
         <v>13</v>
       </c>
       <c r="O25" s="15" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="P25" s="15" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
@@ -1551,7 +1557,7 @@
         <v>5</v>
       </c>
       <c r="L27" s="14" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="M27" s="20" t="s">
         <v>31</v>
@@ -1560,10 +1566,10 @@
         <v>37</v>
       </c>
       <c r="O27" s="15" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="P27" s="15" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
@@ -1576,43 +1582,41 @@
       <c r="P28" s="15"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="J29" s="59"/>
+      <c r="J29" s="53"/>
       <c r="K29" s="52" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="L29" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="M29" s="59"/>
+        <v>54</v>
+      </c>
+      <c r="M29" s="53"/>
       <c r="N29" s="52" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O29" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="P29" s="39" t="s">
-        <v>41</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="P29" s="39"/>
     </row>
     <row r="33" spans="10:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="J33" s="57"/>
-      <c r="K33" s="57"/>
-      <c r="L33" s="57"/>
-      <c r="M33" s="57"/>
-      <c r="N33" s="57"/>
-      <c r="O33" s="57"/>
+      <c r="J33" s="59"/>
+      <c r="K33" s="59"/>
+      <c r="L33" s="59"/>
+      <c r="M33" s="59"/>
+      <c r="N33" s="59"/>
+      <c r="O33" s="59"/>
     </row>
     <row r="34" spans="10:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="J34" s="53" t="s">
+      <c r="J34" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="K34" s="53"/>
-      <c r="L34" s="53"/>
-      <c r="M34" s="54" t="s">
+      <c r="K34" s="54"/>
+      <c r="L34" s="54"/>
+      <c r="M34" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="N34" s="53"/>
-      <c r="O34" s="53"/>
+      <c r="N34" s="54"/>
+      <c r="O34" s="54"/>
       <c r="P34" s="25"/>
     </row>
     <row r="35" spans="10:16" x14ac:dyDescent="0.2">
@@ -1644,7 +1648,7 @@
         <v>8</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="M36" s="27" t="s">
         <v>30</v>
@@ -1653,7 +1657,7 @@
         <v>15</v>
       </c>
       <c r="O36" s="28" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="P36" s="20"/>
     </row>
@@ -1665,7 +1669,7 @@
         <v>6</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="M37" s="27" t="s">
         <v>31</v>
@@ -1674,24 +1678,24 @@
         <v>38</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="P37" s="20"/>
     </row>
     <row r="38" spans="10:16" x14ac:dyDescent="0.2">
       <c r="J38" s="29"/>
       <c r="K38" s="30" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="L38" s="28" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="M38" s="31"/>
       <c r="N38" s="30" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="P38" s="20"/>
     </row>
@@ -1725,7 +1729,7 @@
         <v>15</v>
       </c>
       <c r="O40" s="34" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="P40" s="20"/>
     </row>
@@ -1737,7 +1741,7 @@
         <v>11</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M41" s="27" t="s">
         <v>31</v>
@@ -1746,24 +1750,24 @@
         <v>38</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="P41" s="20"/>
     </row>
     <row r="42" spans="10:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="J42" s="35"/>
       <c r="K42" s="36" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="L42" s="5" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="M42" s="37"/>
       <c r="N42" s="36" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="O42" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P42" s="20"/>
     </row>
